--- a/biology/Botanique/Limbe_foliaire/Limbe_foliaire.xlsx
+++ b/biology/Botanique/Limbe_foliaire/Limbe_foliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le limbe d'une feuille de végétal est la partie de cet organe située à l'extrémité du pétiole. Cette pièce foliaire est en général très étalée et comporte de nombreuses cellules photosynthétiques, car c'est un organe particulièrement adapté à la capture de l'énergie lumineuse. Le limbe peut être décurrent (se prolonger) sur le pétiole.
 Un certain nombre de plantes sont capables d'orienter leur limbe foliaire par rapport à l'incidence des rayons solaires, soit pour en augmenter l'exposition, soit pour la limiter. C'est le cas de nombreux acacias.
@@ -520,7 +532,9 @@
           <t>Épiderme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiderme est la couche de cellules externes des feuilles. Cette couche est généralement transparente (ces cellules n'ont pas de chloroplastes) et couverte par une cuticule d'aspect cireux permettant de limiter les pertes en eau lors de trop fortes chaleurs. Chez les végétaux des climats secs cette cuticule est donc plus épaisse. La cuticule est parfois plus fine sur l'épiderme inférieur que sur l'épiderme supérieur.
 L'épiderme inférieur est couvert de pores appelés stomates. Ceux-ci permettent à l'oxygène et au dioxyde de carbone de rentrer et sortir des feuilles. La vapeur d'eau est aussi évacuée par les stomates au cours de la transpiration. Pour conserver de l'eau, les stomates peuvent se fermer pendant la nuit.
@@ -553,7 +567,9 @@
           <t>Mésophylle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La plus grande partie de l'intérieur d'une feuille, c'est-à-dire entre l'épiderme inférieur et supérieur, est composé d'un parenchyme appelé le mésophylle. Ce tissu joue un rôle très important dans la photosynthèse. Le mésophylle est composé de deux parties :
 vers la face supérieure : le parenchyme pallissadique composé de cellules verticales, allongées et serrées ; les cellules qui le constituent sont riches en chloroplastes, c'est dans ce parenchyme que se déroule la photosynthèse.
@@ -585,7 +601,9 @@
           <t>Forme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la botanique                     </t>
         </is>
